--- a/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -969,13 +969,13 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.35</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1041,22 +1041,22 @@
         <v>2.41</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AN4" t="n">
         <v>1.88</v>
@@ -1065,10 +1065,10 @@
         <v>1.93</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.09</v>
+        <v>3.58</v>
       </c>
       <c r="L5" t="n">
-        <v>4.74</v>
+        <v>4.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1180,34 +1180,34 @@
         <v>3.06</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="L6" t="n">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="M6" t="n">
         <v>1.53</v>
@@ -1268,16 +1268,16 @@
         <v>7.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="S6" t="n">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1319,34 +1319,34 @@
         <v>1.55</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>6.01</v>
       </c>
       <c r="L7" t="n">
-        <v>10.61</v>
+        <v>10.81</v>
       </c>
       <c r="M7" t="n">
         <v>1.29</v>
@@ -1413,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T7" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1458,22 +1458,22 @@
         <v>4.89</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AN7" t="n">
         <v>1.83</v>
@@ -1482,10 +1482,10 @@
         <v>1.98</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="M8" t="n">
         <v>1.53</v>
@@ -1552,10 +1552,10 @@
         <v>2.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
         <v>2.05</v>
@@ -1597,22 +1597,22 @@
         <v>2.05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AN8" t="n">
         <v>1.85</v>
@@ -1621,10 +1621,10 @@
         <v>1.95</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="K9" t="n">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="L9" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.57</v>
@@ -1691,7 +1691,7 @@
         <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="T9" t="n">
         <v>1.47</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,98 +1781,98 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1.8</v>
       </c>
-      <c r="J10" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P11" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ceramica Cleopatra</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Zamalek</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="12">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.09</v>
+        <v>1.75</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>1.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.92</v>
       </c>
       <c r="L13" t="n">
-        <v>6.37</v>
+        <v>5.92</v>
       </c>
       <c r="M13" t="n">
         <v>1.5</v>
@@ -2247,10 +2247,10 @@
         <v>2.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
@@ -2359,13 +2359,13 @@
         <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="K14" t="n">
-        <v>3.66</v>
+        <v>3.47</v>
       </c>
       <c r="L14" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="n">
         <v>1.3</v>
@@ -2386,10 +2386,10 @@
         <v>4.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
         <v>1.53</v>
@@ -2498,13 +2498,13 @@
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="L15" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>

--- a/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -969,13 +969,13 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,7 +996,7 @@
         <v>3.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.9</v>
@@ -1108,13 +1108,13 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.57</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1247,13 +1247,13 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.23</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="M6" t="n">
         <v>1.53</v>
@@ -1268,16 +1268,16 @@
         <v>7.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K7" t="n">
-        <v>6.01</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>10.81</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
         <v>1.29</v>
@@ -1413,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="T7" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.53</v>
@@ -1552,10 +1552,10 @@
         <v>2.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
         <v>2.05</v>
@@ -1664,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.57</v>
@@ -1691,10 +1691,10 @@
         <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1942,13 +1942,13 @@
         <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>9.67</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>5.49</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.3</v>
@@ -1969,10 +1969,10 @@
         <v>4.33</v>
       </c>
       <c r="S11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="T11" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -2223,10 +2223,10 @@
         <v>1.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>5.92</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.5</v>
@@ -2247,10 +2247,10 @@
         <v>2.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
@@ -2359,13 +2359,13 @@
         <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="K14" t="n">
-        <v>3.47</v>
+        <v>3.66</v>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.3</v>
@@ -2386,10 +2386,10 @@
         <v>4.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U14" t="n">
         <v>1.53</v>
@@ -2498,13 +2498,13 @@
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="K15" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>

--- a/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,12 +673,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -812,12 +812,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -878,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -999,7 +999,7 @@
         <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1108,13 +1108,13 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1138,7 +1138,7 @@
         <v>2.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1247,13 +1247,13 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.35</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L6" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="M6" t="n">
         <v>1.53</v>
@@ -1274,10 +1274,10 @@
         <v>2.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>10.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.29</v>
@@ -1413,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.53</v>
@@ -1552,10 +1552,10 @@
         <v>2.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
         <v>2.05</v>
@@ -1664,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.57</v>
@@ -1691,10 +1691,10 @@
         <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Coca-Cola</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>El Gounah</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.75</v>
       </c>
-      <c r="W11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AC11" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.56</v>
       </c>
       <c r="M13" t="n">
         <v>1.5</v>
@@ -2247,10 +2247,10 @@
         <v>2.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
@@ -2359,13 +2359,13 @@
         <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="K14" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>2.47</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="n">
         <v>1.3</v>
@@ -2386,10 +2386,10 @@
         <v>4.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="U14" t="n">
         <v>1.53</v>
@@ -2498,13 +2498,13 @@
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
